--- a/APM files/128876432 dos/128876432 IMPORT 1 RomeType&RatePlan template.xlsx
+++ b/APM files/128876432 dos/128876432 IMPORT 1 RomeType&RatePlan template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\128876432 dos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E9B8CF-790F-4A20-8538-D82D3E41E2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5647CC-FFE8-4639-A55D-E430088EF06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="5370" windowWidth="22440" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="4620" windowWidth="22440" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -28,97 +28,55 @@
     <t>Room Type ID</t>
   </si>
   <si>
-    <t>ARI Room Type</t>
-  </si>
-  <si>
-    <t>Room Out Of Sync</t>
-  </si>
-  <si>
-    <t>Room Type Name</t>
+    <t>RNS Quality</t>
+  </si>
+  <si>
+    <t>RNS Smoking Pref</t>
+  </si>
+  <si>
+    <t>RNS Accessibility</t>
+  </si>
+  <si>
+    <t>RNS View</t>
+  </si>
+  <si>
+    <t>RNS Area</t>
+  </si>
+  <si>
+    <t>RNS Bed Type</t>
+  </si>
+  <si>
+    <t>RNS Custom Label</t>
+  </si>
+  <si>
+    <t>RNS Brand Attribute</t>
+  </si>
+  <si>
+    <t>RNS Other Room Info</t>
+  </si>
+  <si>
+    <t>RNS Flag</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>106651913</t>
+  </si>
+  <si>
+    <t>325039802</t>
+  </si>
+  <si>
+    <t>325039803</t>
+  </si>
+  <si>
+    <t>325039804</t>
   </si>
   <si>
     <t>RNS Room Type</t>
   </si>
   <si>
-    <t>RNS Quality</t>
-  </si>
-  <si>
-    <t>RNS Smoking Pref</t>
-  </si>
-  <si>
-    <t>RNS Accessibility</t>
-  </si>
-  <si>
-    <t>RNS View</t>
-  </si>
-  <si>
-    <t>RNS Feature Amenity</t>
-  </si>
-  <si>
-    <t>RNS Area</t>
-  </si>
-  <si>
-    <t>RNS Bedroom</t>
-  </si>
-  <si>
-    <t>RNS Bed Type</t>
-  </si>
-  <si>
-    <t>RNS Custom Label</t>
-  </si>
-  <si>
-    <t>RNS Brand Attribute</t>
-  </si>
-  <si>
-    <t>RNS Other Room Info</t>
-  </si>
-  <si>
-    <t>RNS Flag</t>
-  </si>
-  <si>
-    <t>106651912</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>325039798</t>
-  </si>
-  <si>
-    <t>Apartment, 1 Bedroom</t>
-  </si>
-  <si>
     <t>Apartment</t>
-  </si>
-  <si>
-    <t>1 Bedroom</t>
-  </si>
-  <si>
-    <t>325039799</t>
-  </si>
-  <si>
-    <t>Apartment, 2 Bedrooms (2 queenbed)</t>
-  </si>
-  <si>
-    <t>2 Bedrooms</t>
-  </si>
-  <si>
-    <t>325039800</t>
-  </si>
-  <si>
-    <t>Apartment, 2 Bedrooms, 2 Bathrooms (2 queenbed)</t>
-  </si>
-  <si>
-    <t>2 Bathrooms</t>
-  </si>
-  <si>
-    <t>325039935</t>
-  </si>
-  <si>
-    <t>Studio</t>
   </si>
 </sst>
 </file>
@@ -169,10 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,400 +466,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
       <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
